--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="102">
   <si>
     <t>List</t>
   </si>
@@ -202,6 +202,126 @@
   </si>
   <si>
     <t>Doubly LL</t>
+  </si>
+  <si>
+    <t>less (compared to AL)</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>more (compared to AL) for predecessors and successors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no</t>
+  </si>
+  <si>
+    <t>yes - use only then</t>
+  </si>
+  <si>
+    <t>2 * old_cap</t>
+  </si>
+  <si>
+    <t>Enumeration</t>
+  </si>
+  <si>
+    <t>Iterator</t>
+  </si>
+  <si>
+    <t>ListIterator</t>
+  </si>
+  <si>
+    <t>applicable for</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>accessibility</t>
+  </si>
+  <si>
+    <t>get it</t>
+  </si>
+  <si>
+    <t>methods</t>
+  </si>
+  <si>
+    <t>legacy</t>
+  </si>
+  <si>
+    <t>only legacy class</t>
+  </si>
+  <si>
+    <t>only list based c</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>bi-di</t>
+  </si>
+  <si>
+    <t>read, remove</t>
+  </si>
+  <si>
+    <t>read, remove,replace, add</t>
+  </si>
+  <si>
+    <t>elements() of vector class</t>
+  </si>
+  <si>
+    <t>iterator() of coll (I)</t>
+  </si>
+  <si>
+    <t>ListIterator() of List (I)</t>
+  </si>
+  <si>
+    <t>hasNext(), next(), remove()</t>
+  </si>
+  <si>
+    <t>hasMoreElements(), nextElement()</t>
+  </si>
+  <si>
+    <t>any Coll c, universal Cursor</t>
+  </si>
+  <si>
+    <t>9 b</t>
+  </si>
+  <si>
+    <t>create using</t>
+  </si>
+  <si>
+    <t>.elements()</t>
+  </si>
+  <si>
+    <t>.iterator()</t>
+  </si>
+  <si>
+    <t>.listIterator()</t>
+  </si>
+  <si>
+    <t>forward (uni-di)</t>
+  </si>
+  <si>
+    <t>SplitIerator</t>
+  </si>
+  <si>
+    <t>efficient for parallel traversal, parallel programming</t>
+  </si>
+  <si>
+    <t>mostly same as Iterator, so normally not used</t>
+  </si>
+  <si>
+    <t>only sequential Iteration, not Parallel</t>
+  </si>
+  <si>
+    <t>better performance for large volume of data</t>
+  </si>
+  <si>
+    <t>not better performance compared to SplitIterator for large volume of data</t>
+  </si>
+  <si>
+    <t>read or retrieval</t>
   </si>
 </sst>
 </file>
@@ -282,24 +402,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,21 +734,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="40" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" style="2" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="21.140625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.75">
@@ -616,702 +758,1022 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="31.5">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="23.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="23.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="23.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="23.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="23.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="23.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="23.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="23.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5">
         <v>10</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="46.5">
-      <c r="A14" s="6" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="23.25">
+      <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="23.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="23.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7"/>
+      <c r="E16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="23.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" ht="69.75">
-      <c r="A18" s="6" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="23.25">
+      <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="46.5">
-      <c r="A19" s="6" t="s">
+      <c r="E18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="23.25">
+      <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="23.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" ht="46.5">
-      <c r="A21" s="6" t="s">
+      <c r="D20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="23.25">
+      <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" ht="46.5">
-      <c r="A22" s="6" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="23.25">
+      <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="23.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" ht="46.5">
-      <c r="C24" s="6" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="23.25">
+      <c r="C24" s="5" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="25" spans="1:6" ht="46.5">
+      <c r="A25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="32" spans="1:6">
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="35" spans="1:8" ht="26.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="26.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" ht="26.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" ht="26.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="1:8" ht="26.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" ht="26.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" ht="26.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8" t="s">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" ht="26.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:8" ht="26.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8" t="s">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" ht="26.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:8" ht="26.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8" t="s">
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" ht="26.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="1:8" ht="26.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" ht="26.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="F43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" ht="26.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="F44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" ht="26.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="F45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" ht="26.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" ht="26.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8" t="s">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="1:8" ht="26.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8" t="s">
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" ht="26.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="F48" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" ht="26.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="F49" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" ht="26.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" ht="26.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8" t="s">
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:8" ht="26.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8" t="s">
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" ht="26.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8" t="s">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8" ht="26.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8" ht="26.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8" ht="26.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" ht="26.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:8" ht="26.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8" t="s">
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" ht="26.25">
+      <c r="A53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" ht="26.25">
+      <c r="A54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" ht="26.25">
+      <c r="A55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" ht="26.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" ht="26.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8" t="s">
+      <c r="C57" s="7"/>
+      <c r="D57" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" ht="26.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8" t="s">
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" ht="26.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8" t="s">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:8" ht="26.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8" t="s">
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" ht="26.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8" t="s">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:8" ht="26.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8" t="s">
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" ht="26.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8" t="s">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="1:8" ht="26.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="1:8" ht="26.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8" t="s">
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" ht="26.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" ht="26.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8" t="s">
+      <c r="C62" s="7"/>
+      <c r="D62" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" spans="1:8" ht="26.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8" t="s">
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" ht="26.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8" t="s">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="1:8" ht="26.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8" t="s">
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" ht="26.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8" t="s">
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" spans="1:8" ht="26.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8" t="s">
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" ht="26.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8" t="s">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:8" ht="26.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8" t="s">
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" ht="26.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="1:8" ht="26.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8" t="s">
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" ht="26.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8" t="s">
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" spans="1:8" ht="26.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" spans="1:8" ht="26.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8" t="s">
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8" ht="26.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8" ht="26.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C69" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-    </row>
-    <row r="63" spans="1:8" ht="26.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8" ht="26.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8" ht="26.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="1:8" ht="26.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:8" ht="31.5">
+      <c r="A73" s="9"/>
+      <c r="B73" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="1:8" ht="52.5">
+      <c r="A74" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:8" ht="26.25">
+      <c r="A75" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:8" ht="26.25">
+      <c r="A76" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:8" ht="78.75">
+      <c r="A77" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="1:8" ht="78.75">
+      <c r="A78" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="1:8" ht="26.25">
+      <c r="A79" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="1:8" ht="26.25">
+      <c r="A80" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E80" s="9"/>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="1:6" ht="78.75">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="1:6" ht="78.75">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="1:6" ht="157.5">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="1:6" ht="26.25">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="1:6" ht="26.25">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="1:6" ht="26.25">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="1:6" ht="26.25">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="1:6" ht="26.25">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="1:6" ht="26.25">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" spans="1:6" ht="26.25">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="116">
   <si>
     <t>List</t>
   </si>
@@ -322,13 +322,55 @@
   </si>
   <si>
     <t>read or retrieval</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>hashSet</t>
+  </si>
+  <si>
+    <t>underlying data structure</t>
+  </si>
+  <si>
+    <t>hashtable</t>
+  </si>
+  <si>
+    <t>hashtable + LL</t>
+  </si>
+  <si>
+    <t>balanced tree</t>
+  </si>
+  <si>
+    <t>insertion order preserved</t>
+  </si>
+  <si>
+    <t>sorting order</t>
+  </si>
+  <si>
+    <t>heterogeneous obj</t>
+  </si>
+  <si>
+    <t>duplicates</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>yes only once</t>
+  </si>
+  <si>
+    <t>for empty only 1st element -&gt; yes ; other cases NPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +423,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -402,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,6 +487,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -734,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A2:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -753,368 +805,368 @@
     <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="31.5">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:7" ht="33.75">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="2:7" ht="31.5">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="23.25">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="2:7" ht="23.25">
+      <c r="B4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="23.25">
-      <c r="A4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" ht="23.25">
-      <c r="A5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="2:7" ht="23.25">
+      <c r="B5" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="C5" s="12"/>
-      <c r="D5" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="23.25">
-      <c r="A6" s="5" t="s">
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="2:7" ht="23.25">
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="2:7" ht="23.25">
+      <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="23.25">
-      <c r="A7" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:7" ht="23.25">
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="23.25">
-      <c r="A8" s="5" t="s">
+      <c r="C8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:7" ht="23.25">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="23.25">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="2:7" ht="23.25">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="23.25">
-      <c r="A10" s="5" t="s">
+      <c r="F10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="23.25">
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="23.25">
-      <c r="A11" s="5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:7" ht="23.25">
+      <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="23.25">
-      <c r="A12" s="5" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:7" ht="23.25">
+      <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="23.25">
-      <c r="A13" s="5" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:7" ht="23.25">
+      <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
         <v>10</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
         <v>10</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="23.25">
-      <c r="A14" s="5" t="s">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="2:7" ht="23.25">
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="23.25">
-      <c r="A15" s="5" t="s">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="2:7" ht="23.25">
+      <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="23.25">
-      <c r="A16" s="5" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="23.25">
+      <c r="B17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="23.25">
-      <c r="A17" s="5" t="s">
+      <c r="F17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="23.25">
+      <c r="B18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="23.25">
-      <c r="A18" s="5" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="23.25">
+      <c r="B19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="23.25">
-      <c r="A19" s="5" t="s">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" ht="23.25">
+      <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="23.25">
-      <c r="A20" s="5" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7" ht="23.25">
+      <c r="B21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="23.25">
-      <c r="A21" s="5" t="s">
+      <c r="F21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:7" ht="23.25">
+      <c r="B22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="23.25">
-      <c r="A22" s="5" t="s">
+      <c r="G22" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="23.25">
+      <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="23.25">
-      <c r="A23" s="5" t="s">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:7" ht="23.25">
+      <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="23.25">
-      <c r="C24" s="5" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:7" ht="23.25">
+      <c r="D25" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="46.5">
-      <c r="A25" s="5" t="s">
+    <row r="26" spans="2:7" ht="69.75">
+      <c r="B26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="D32" s="2" t="s">
+    <row r="32" spans="2:7" ht="23.25">
+      <c r="D32" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E32" s="6"/>
@@ -1557,193 +1609,186 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:8" ht="31.5">
-      <c r="A73" s="9"/>
-      <c r="B73" s="3" t="s">
+    <row r="74" spans="1:8" ht="31.5">
+      <c r="B74" s="9"/>
+      <c r="C74" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="1:8" ht="52.5">
-      <c r="A74" s="9" t="s">
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="1:8" ht="26.25">
+      <c r="B75" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="C75" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="D75" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="E75" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="1:8" ht="26.25">
-      <c r="A75" s="9" t="s">
+      <c r="F75" s="9"/>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="1:8" ht="26.25">
+      <c r="B76" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="C76" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="D76" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="E76" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="1:8" ht="26.25">
-      <c r="A76" s="9" t="s">
+      <c r="F76" s="9"/>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="1:8" ht="52.5">
+      <c r="B77" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="D77" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="E77" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="1:8" ht="78.75">
-      <c r="A77" s="9" t="s">
+      <c r="F77" s="9"/>
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" spans="1:8" ht="52.5">
+      <c r="B78" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="C78" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="D78" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="E78" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="7"/>
-    </row>
-    <row r="78" spans="1:8" ht="78.75">
-      <c r="A78" s="9" t="s">
+      <c r="F78" s="9"/>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="1:8" ht="52.5">
+      <c r="B79" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="C79" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="D79" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="E79" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="7"/>
-    </row>
-    <row r="79" spans="1:8" ht="26.25">
-      <c r="A79" s="9" t="s">
+      <c r="F79" s="9"/>
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" spans="1:8" ht="26.25">
+      <c r="B80" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="9" t="s">
+      <c r="C80" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="E80" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="7"/>
-    </row>
-    <row r="80" spans="1:8" ht="26.25">
-      <c r="A80" s="9" t="s">
+      <c r="F80" s="9"/>
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="1:7" ht="26.25">
+      <c r="B81" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="C81" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="D81" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="E81" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E80" s="9"/>
-      <c r="F80" s="7"/>
-    </row>
-    <row r="81" spans="1:6" ht="78.75">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D81" s="7"/>
-      <c r="E81" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F81" s="7"/>
-    </row>
-    <row r="82" spans="1:6" ht="78.75">
-      <c r="A82" s="7"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" spans="1:7" ht="78.75">
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="9" t="s">
+      <c r="D82" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="1:7" ht="78.75">
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F82" s="7"/>
-    </row>
-    <row r="83" spans="1:6" ht="157.5">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F83" s="7"/>
-    </row>
-    <row r="84" spans="1:6" ht="26.25">
-      <c r="A84" s="7"/>
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" spans="1:7" ht="78.75">
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
+      <c r="D84" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-    </row>
-    <row r="85" spans="1:6" ht="26.25">
-      <c r="A85" s="7"/>
+      <c r="F84" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85" spans="1:7" ht="26.25">
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
-    </row>
-    <row r="86" spans="1:6" ht="26.25">
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" spans="1:7" ht="26.25">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
-    </row>
-    <row r="87" spans="1:6" ht="26.25">
+      <c r="G86" s="7"/>
+    </row>
+    <row r="87" spans="1:7" ht="26.25">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -1751,7 +1796,7 @@
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:6" ht="26.25">
+    <row r="88" spans="1:7" ht="26.25">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -1759,7 +1804,7 @@
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="1:6" ht="26.25">
+    <row r="89" spans="1:7" ht="26.25">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -1767,13 +1812,159 @@
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" spans="1:6" ht="26.25">
+    <row r="90" spans="1:7" ht="26.25">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="1:7" ht="31.5">
+      <c r="A91" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+    </row>
+    <row r="92" spans="1:7" ht="31.5">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92" s="11"/>
+    </row>
+    <row r="93" spans="1:7" ht="31.5">
+      <c r="A93" s="13"/>
+      <c r="B93" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F93" s="13"/>
+    </row>
+    <row r="94" spans="1:7" ht="31.5">
+      <c r="A94" s="13"/>
+      <c r="B94" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" s="13"/>
+    </row>
+    <row r="95" spans="1:7" ht="31.5">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="13"/>
+    </row>
+    <row r="96" spans="1:7" ht="31.5">
+      <c r="A96" s="13"/>
+      <c r="B96" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" s="13"/>
+    </row>
+    <row r="97" spans="1:6" ht="31.5">
+      <c r="A97" s="13"/>
+      <c r="B97" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" s="13"/>
+    </row>
+    <row r="98" spans="1:6" ht="31.5">
+      <c r="A98" s="13"/>
+      <c r="B98" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F98" s="13"/>
+    </row>
+    <row r="99" spans="1:6" ht="31.5">
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+    </row>
+    <row r="100" spans="1:6" ht="31.5">
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+    </row>
+    <row r="101" spans="1:6" ht="31.5">
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
